--- a/Dokumentation/Dokumentation/O.K.E_Compatiple_parts.xlsx
+++ b/Dokumentation/Dokumentation/O.K.E_Compatiple_parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studmswch-my.sharepoint.com/personal/tendai_rondof_stud_msw_ch/Documents/MSW/Büp/O.K.E/Dokumentation/Dokumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e6Rondof\OneDrive - MSW-Winterthur\MSW\Büp\O.K.E\Dokumentation\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{845BA1E9-B0E5-4C69-B6FA-FB4490493D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{845BA1E9-B0E5-4C69-B6FA-FB4490493D77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C10EF120-CF82-49FD-B4B1-5B752178DEF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{A0485A3B-9D8B-45A5-B6D1-BAD488220E8B}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{A0485A3B-9D8B-45A5-B6D1-BAD488220E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dokumentation/Dokumentation/O.K.E_Compatiple_parts.xlsx
+++ b/Dokumentation/Dokumentation/O.K.E_Compatiple_parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e6Rondof\OneDrive - MSW-Winterthur\MSW\Büp\O.K.E\Dokumentation\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{845BA1E9-B0E5-4C69-B6FA-FB4490493D77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C10EF120-CF82-49FD-B4B1-5B752178DEF3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{845BA1E9-B0E5-4C69-B6FA-FB4490493D77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C639EECE-A4A2-450B-B01E-0C1525D8F14A}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{A0485A3B-9D8B-45A5-B6D1-BAD488220E8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0485A3B-9D8B-45A5-B6D1-BAD488220E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
